--- a/qubership-apihub-service/static/templates/resources/ExcelExportTemplate.xlsx
+++ b/qubership-apihub-service/static/templates/resources/ExcelExportTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531B114-840D-435F-9B5E-19CFFAC78195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0CC7C-B989-4F64-BC2B-19852D83CEB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,22 +365,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360006</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26630</xdr:rowOff>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681235EE-2C40-4BB6-8936-E7FEC8BF18D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA5915D-1D0A-4780-BA63-0391134C093B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -396,8 +396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1005840" y="579120"/>
-          <a:ext cx="314286" cy="323810"/>
+          <a:off x="990600" y="891540"/>
+          <a:ext cx="746760" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,7 +615,7 @@
   <dimension ref="B13:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
